--- a/Assets/Res/Arts/ExcelConfig/AttackConfig.xlsx
+++ b/Assets/Res/Arts/ExcelConfig/AttackConfig.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\demo\Assets\Res\Arts\ExcelConfig\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3586C000-07EB-422E-B21B-FE6815851116}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20475" windowHeight="15450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20475" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AttackConfig" sheetId="1" r:id="rId1"/>
     <sheet name="AvatarConfig备份" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AttackConfig!$A$4:$AC$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AttackConfig!$A$4:$AD$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AvatarConfig备份!$A$4:$Z$10</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>攻击id</t>
   </si>
@@ -291,18 +297,41 @@
   <si>
     <t>avatarEffect5006</t>
   </si>
+  <si>
+    <t>searchAngle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ua</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索角度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,148 +364,39 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,7 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,192 +417,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799920651875362"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -716,259 +456,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -994,64 +492,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1338,40 +798,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AK10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="14" width="14.625" customWidth="1"/>
-    <col min="15" max="16" width="20.625" customWidth="1"/>
-    <col min="17" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="21.125" customWidth="1"/>
-    <col min="21" max="21" width="15.5" customWidth="1"/>
-    <col min="22" max="23" width="11.25" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="25" width="9.75" customWidth="1"/>
-    <col min="26" max="26" width="8.5" customWidth="1"/>
-    <col min="27" max="27" width="15.25" customWidth="1"/>
-    <col min="28" max="28" width="7.625" customWidth="1"/>
-    <col min="29" max="29" width="7.125" customWidth="1"/>
-    <col min="30" max="30" width="13.875" customWidth="1"/>
-    <col min="31" max="31" width="11.25" customWidth="1"/>
-    <col min="32" max="32" width="15.125" customWidth="1"/>
-    <col min="33" max="33" width="21.875" customWidth="1"/>
-    <col min="34" max="37" width="9.75" customWidth="1"/>
+    <col min="1" max="15" width="14.625" customWidth="1"/>
+    <col min="16" max="17" width="20.625" customWidth="1"/>
+    <col min="18" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="21.125" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="24" width="11.25" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="26" max="26" width="9.75" customWidth="1"/>
+    <col min="27" max="27" width="8.5" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="29" width="7.625" customWidth="1"/>
+    <col min="30" max="30" width="7.125" customWidth="1"/>
+    <col min="31" max="31" width="13.875" customWidth="1"/>
+    <col min="32" max="32" width="11.25" customWidth="1"/>
+    <col min="33" max="33" width="15.125" customWidth="1"/>
+    <col min="34" max="34" width="21.875" customWidth="1"/>
+    <col min="35" max="38" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" spans="1:37">
+    <row r="1" spans="1:38" ht="45" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1381,13 +841,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1413,14 +875,15 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
-      <c r="AF1" s="6"/>
+      <c r="AF1" s="1"/>
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
       <c r="AJ1" s="6"/>
       <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1430,13 +893,15 @@
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="D2" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1468,8 +933,9 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1479,13 +945,15 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -1511,14 +979,15 @@
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
-      <c r="AF3" s="1"/>
+      <c r="AF3" s="2"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1529,12 +998,14 @@
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1560,14 +1031,15 @@
       <c r="AC4" s="3"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
-      <c r="AF4" s="7"/>
+      <c r="AF4" s="3"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
       <c r="AI4" s="7"/>
       <c r="AJ4" s="7"/>
       <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -1575,15 +1047,17 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="4">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4">
         <v>1.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>100001</v>
       </c>
-      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1609,14 +1083,15 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="8"/>
+      <c r="AF5" s="4"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
       <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
       <c r="AK5" s="8"/>
+      <c r="AL5" s="8"/>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -1627,12 +1102,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
         <v>1.5</v>
       </c>
-      <c r="E6" s="4">
-        <v>100002</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4">
+        <v>100001</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1658,14 +1135,15 @@
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
-      <c r="AF6" s="8"/>
+      <c r="AF6" s="4"/>
       <c r="AG6" s="8"/>
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
       <c r="AK6" s="8"/>
+      <c r="AL6" s="8"/>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -1673,15 +1151,17 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="4">
-        <v>1.5</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
         <v>100003</v>
       </c>
-      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1707,14 +1187,15 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AF7" s="8"/>
+      <c r="AF7" s="4"/>
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
       <c r="AJ7" s="8"/>
       <c r="AK7" s="8"/>
+      <c r="AL7" s="8"/>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -1725,12 +1206,14 @@
         <v>1</v>
       </c>
       <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
         <v>1.5</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>100004</v>
       </c>
-      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -1756,14 +1239,15 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
-      <c r="AF8" s="8"/>
+      <c r="AF8" s="4"/>
       <c r="AG8" s="8"/>
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
       <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -1774,12 +1258,14 @@
         <v>1</v>
       </c>
       <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
         <v>1.5</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>100005</v>
       </c>
-      <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1805,14 +1291,15 @@
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
-      <c r="AF9" s="8"/>
+      <c r="AF9" s="4"/>
       <c r="AG9" s="8"/>
       <c r="AH9" s="8"/>
       <c r="AI9" s="8"/>
       <c r="AJ9" s="8"/>
       <c r="AK9" s="8"/>
+      <c r="AL9" s="8"/>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -1823,12 +1310,14 @@
         <v>1</v>
       </c>
       <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
         <v>1.5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>100006</v>
       </c>
-      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -1854,33 +1343,31 @@
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="8"/>
+      <c r="AF10" s="4"/>
       <c r="AG10" s="8"/>
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
       <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AC10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <autoFilter ref="A4:AD10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD10"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
@@ -1904,7 +1391,7 @@
     <col min="28" max="28" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:28">
+    <row r="1" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1990,7 +1477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -2076,7 +1563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +1649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2248,7 +1735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" ht="33.75" spans="1:28">
+    <row r="5" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>100001</v>
       </c>
@@ -2334,7 +1821,7 @@
         <v>71004</v>
       </c>
     </row>
-    <row r="6" ht="33.75" spans="1:28">
+    <row r="6" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>100002</v>
       </c>
@@ -2420,7 +1907,7 @@
         <v>71005</v>
       </c>
     </row>
-    <row r="7" ht="33.75" spans="1:28">
+    <row r="7" spans="1:28" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>100003</v>
       </c>
@@ -2506,7 +1993,7 @@
         <v>71006</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>100004</v>
       </c>
@@ -2586,7 +2073,7 @@
       </c>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>100005</v>
       </c>
@@ -2666,7 +2153,7 @@
       </c>
       <c r="AB9" s="4"/>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>100006</v>
       </c>
@@ -2747,11 +2234,9 @@
       <c r="AB10" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:Z10">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A4:Z10" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>